--- a/week6/Decision Dilemma_Mini_case_data_Table_1-Team-7.xlsx
+++ b/week6/Decision Dilemma_Mini_case_data_Table_1-Team-7.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carles/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carles/DSCI6006-student/week6/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16960"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>TABLE 1: Projected Cashflows for different projects at HQChip</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>2 year Payback</t>
+  </si>
+  <si>
+    <t>We choose C as it has the highest 2 year payback.</t>
   </si>
 </sst>
 </file>
@@ -314,9 +317,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -338,6 +338,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -673,18 +676,18 @@
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -705,21 +708,21 @@
       <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
@@ -736,15 +739,15 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="I7" s="28">
+      <c r="I7" s="27">
         <f>NPV($D$16,C7:G7)</f>
         <v>807803.68846212444</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="28">
         <f>IRR(C7:G7)</f>
         <v>0.67635789396694501</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <f>MIRR(C7:G7,J7,$D$16)</f>
         <v>0.47783625615289327</v>
       </c>
@@ -757,9 +760,9 @@
       <c r="E8" s="10"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -777,15 +780,15 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <f>NPV($D$16,C9:G9)</f>
         <v>1120256.0585276631</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="28">
         <f t="shared" ref="J9:J13" si="0">IRR(C9:G9)</f>
         <v>0.49999999999999978</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="28">
         <f>MIRR(C9:G9,J9,$D$16)</f>
         <v>0.36821051011896544</v>
       </c>
@@ -798,9 +801,9 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -818,15 +821,15 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <f>NPV($D$16,C11:G11)</f>
         <v>1494944.876289183</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <f t="shared" si="0"/>
         <v>0.46509716980849047</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="28">
         <f>MIRR(C11:G11,J11,$D$16)</f>
         <v>0.45189531303052299</v>
       </c>
@@ -839,9 +842,9 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -863,15 +866,15 @@
       <c r="G13" s="7">
         <v>3000000</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="27">
         <f>NPV($D$16,C13:G13)</f>
         <v>2108537.3436457552</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="28">
         <f t="shared" si="0"/>
         <v>0.29460074092608557</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="28">
         <f>MIRR(C13:G13,J13,$D$16)</f>
         <v>0.24378337790043458</v>
       </c>
@@ -905,7 +908,7 @@
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="15"/>
@@ -917,17 +920,17 @@
       <c r="I20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
@@ -958,41 +961,41 @@
         <f>NPV($D$16,C22:G22)</f>
         <v>312452.37006553862</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <f>IRR(C22:G22)</f>
         <v>0.31872930440884351</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="28">
         <f>MIRR(C22:G22,J22,$D$16)</f>
         <v>0.16142996674532806</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="I23" s="14"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
@@ -1022,40 +1025,40 @@
         <f>NPV($D$16,C24:G24)</f>
         <v>374688.81776151998</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="28">
         <f t="shared" ref="J24" si="2">IRR(C24:G24)</f>
         <v>0.375</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="28">
         <f>MIRR(C24:G24,J24,$D$16)</f>
         <v>0.21860576069539395</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
@@ -1085,29 +1088,29 @@
         <f t="shared" ref="I26" si="4">NPV($D$16,C26:G26)</f>
         <v>613592.46735657216</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="28">
         <f t="shared" ref="J26" si="5">IRR(C26:G26)</f>
         <v>0.17147908279866764</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="28">
         <f t="shared" ref="K26" si="6">MIRR(C26:G26,J26,$D$16)</f>
         <v>0.16063340071166521</v>
       </c>
-      <c r="M26" s="32" t="s">
+      <c r="M26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
     </row>
     <row r="30" spans="2:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1134,56 +1137,56 @@
         <v>25</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
@@ -1204,13 +1207,13 @@
       <c r="G45" s="4">
         <v>4</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
-      <c r="I46" s="27"/>
+      <c r="I46" s="26"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
@@ -1227,7 +1230,7 @@
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="I47" s="31">
+      <c r="I47" s="30">
         <f>SUM(D47:G47)/-C47</f>
         <v>2.1</v>
       </c>
@@ -1239,7 +1242,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="I48" s="31"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -1256,8 +1259,8 @@
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="I49" s="31">
-        <f t="shared" ref="I48:I53" si="7">SUM(D49:G49)/-C49</f>
+      <c r="I49" s="30">
+        <f t="shared" ref="I49:I53" si="7">SUM(D49:G49)/-C49</f>
         <v>1.8</v>
       </c>
     </row>
@@ -1268,7 +1271,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="I50" s="31"/>
+      <c r="I50" s="30"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
@@ -1285,7 +1288,7 @@
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="I51" s="31">
+      <c r="I51" s="30">
         <f t="shared" si="7"/>
         <v>2.1</v>
       </c>
@@ -1297,7 +1300,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="I52" s="31"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
@@ -1318,35 +1321,35 @@
       <c r="G53" s="7">
         <v>3000000</v>
       </c>
-      <c r="I53" s="31">
+      <c r="I53" s="30">
         <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="60" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1356,7 +1359,7 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1366,13 +1369,13 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
@@ -1393,13 +1396,13 @@
       <c r="G69" s="4">
         <v>4</v>
       </c>
-      <c r="I69" s="26" t="s">
+      <c r="I69" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
-      <c r="I70" s="27"/>
+      <c r="I70" s="26"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -1416,7 +1419,7 @@
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="I71" s="35">
+      <c r="I71" s="34">
         <f>D71+E71</f>
         <v>2100000</v>
       </c>
@@ -1428,7 +1431,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="I72" s="35"/>
+      <c r="I72" s="34"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
@@ -1445,8 +1448,8 @@
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="I73" s="35">
-        <f t="shared" ref="I72:I77" si="8">D73+E73</f>
+      <c r="I73" s="34">
+        <f t="shared" ref="I73:I77" si="8">D73+E73</f>
         <v>3600000</v>
       </c>
     </row>
@@ -1457,7 +1460,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="I74" s="35"/>
+      <c r="I74" s="34"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
@@ -1474,7 +1477,7 @@
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="I75" s="35">
+      <c r="I75" s="34">
         <f t="shared" si="8"/>
         <v>4200000</v>
       </c>
@@ -1486,7 +1489,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="I76" s="35"/>
+      <c r="I76" s="34"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
@@ -1503,10 +1506,17 @@
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="I77" s="35">
+      <c r="I77" s="34">
         <f t="shared" si="8"/>
         <v>1500000</v>
       </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/week6/Decision Dilemma_Mini_case_data_Table_1-Team-7.xlsx
+++ b/week6/Decision Dilemma_Mini_case_data_Table_1-Team-7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carles/DSCI6006-student/week6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carles/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>TABLE 1: Projected Cashflows for different projects at HQChip</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Profitability Index</t>
   </si>
   <si>
-    <t>The tie between C and A is a problem.</t>
-  </si>
-  <si>
-    <t>Based on profitability index, we choose from highest to lowest: D, tie between C and A, B.</t>
-  </si>
-  <si>
     <t>QUESTION 4</t>
   </si>
   <si>
@@ -140,26 +134,33 @@
     <t>QUESTION 5</t>
   </si>
   <si>
-    <t>The merit of this argument is in the case the company has a fixed time horizon to evaluate different investment opportunities.</t>
-  </si>
-  <si>
     <t>2 year Payback</t>
   </si>
   <si>
-    <t>We choose C as it has the highest 2 year payback.</t>
+    <t>The merit of this argument is in the case the company has a fixed time horizon to evaluate different investment opportunities. Easy and fast.</t>
+  </si>
+  <si>
+    <t>Project C is the most attractive.</t>
+  </si>
+  <si>
+    <t>Discounted In-flows</t>
+  </si>
+  <si>
+    <t>Based on profitability index, we choose from highest to lowest: D, A, C, B.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_);\(#,##0.0000\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +239,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,7 +302,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -328,7 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -338,6 +345,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -660,8 +679,8 @@
     <col min="4" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -676,18 +695,18 @@
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -908,7 +927,7 @@
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="15"/>
@@ -1096,7 +1115,7 @@
         <f t="shared" ref="K26" si="6">MIRR(C26:G26,J26,$D$16)</f>
         <v>0.16063340071166521</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N26" s="20"/>
@@ -1110,7 +1129,7 @@
       <c r="V26" s="20"/>
     </row>
     <row r="30" spans="2:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1180,13 +1199,13 @@
       <c r="H42" s="23"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
@@ -1207,13 +1226,17 @@
       <c r="G45" s="4">
         <v>4</v>
       </c>
-      <c r="I45" s="29" t="s">
+      <c r="I45" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
@@ -1230,9 +1253,13 @@
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="I47" s="30">
-        <f>SUM(D47:G47)/-C47</f>
-        <v>2.1</v>
+      <c r="I47" s="37">
+        <f>D47/(1+$D$16) + E47/(1+$D$16)^2+ F47/(1+$D$16)^2+ G47/(1+$D$16)^2</f>
+        <v>1872427.9835390944</v>
+      </c>
+      <c r="J47" s="29">
+        <f>I47/-C47</f>
+        <v>1.8724279835390945</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
@@ -1242,9 +1269,10 @@
       <c r="E48" s="10"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="I48" s="30"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="37"/>
+      <c r="J48" s="29"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>4</v>
       </c>
@@ -1259,21 +1287,26 @@
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="I49" s="30">
-        <f t="shared" ref="I49:I53" si="7">SUM(D49:G49)/-C49</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="37">
+        <f t="shared" ref="I49:I53" si="7">D49/(1+$D$16) + E49/(1+$D$16)^2+ F49/(1+$D$16)^2+ G49/(1+$D$16)^2</f>
+        <v>3209876.5432098759</v>
+      </c>
+      <c r="J49" s="29">
+        <f t="shared" ref="J49:J51" si="8">I49/-C49</f>
+        <v>1.6049382716049381</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="I50" s="30"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="37"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>5</v>
       </c>
@@ -1288,21 +1321,26 @@
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="I51" s="30">
+      <c r="I51" s="37">
         <f t="shared" si="7"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+        <v>3614540.4663923178</v>
+      </c>
+      <c r="J51" s="29">
+        <f t="shared" si="8"/>
+        <v>1.807270233196159</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="I52" s="30"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="37"/>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>6</v>
       </c>
@@ -1321,14 +1359,18 @@
       <c r="G53" s="7">
         <v>3000000</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="37">
         <f t="shared" si="7"/>
+        <v>5787037.0370370355</v>
+      </c>
+      <c r="J53" s="29">
+        <f>SUM(D53:G53)/-C53</f>
         <v>2.25</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -1336,193 +1378,501 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="20" t="s">
+    <row r="58" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-    </row>
-    <row r="60" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B60" s="32" t="s">
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B62" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C66" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+      <c r="F67" s="4">
+        <v>3</v>
+      </c>
+      <c r="G67" s="4">
+        <v>4</v>
+      </c>
+      <c r="I67" s="25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B64" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C68" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>2</v>
-      </c>
-      <c r="F69" s="4">
+      <c r="J67" s="35"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="34"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="4">
+      <c r="C69" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1050000</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1050000</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="I69" s="33">
+        <f>C69+D69+E69</f>
+        <v>1100000</v>
+      </c>
+      <c r="J69" s="36"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="5"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="36"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="5"/>
-      <c r="I70" s="26"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="C71" s="7">
-        <v>-1000000</v>
+        <v>-2000000</v>
       </c>
       <c r="D71" s="7">
-        <v>1050000</v>
+        <v>1800000</v>
       </c>
       <c r="E71" s="7">
-        <v>1050000</v>
+        <v>1800000</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="I71" s="34">
-        <f>D71+E71</f>
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="33">
+        <f t="shared" ref="I71:I75" si="9">C71+D71+E71</f>
+        <v>1600000</v>
+      </c>
+      <c r="J71" s="36"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="I72" s="34"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="33"/>
+      <c r="J72" s="36"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C73" s="7">
         <v>-2000000</v>
       </c>
       <c r="D73" s="7">
-        <v>1800000</v>
+        <v>200000</v>
       </c>
       <c r="E73" s="7">
-        <v>1800000</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="I73" s="34">
-        <f t="shared" ref="I73:I77" si="8">D73+E73</f>
-        <v>3600000</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+        <v>4000000</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="I73" s="33">
+        <f>C73+D73+E73</f>
+        <v>2200000</v>
+      </c>
+      <c r="J73" s="36"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="I74" s="34"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="6" t="s">
-        <v>5</v>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="36"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="C75" s="7">
-        <v>-2000000</v>
+        <v>-3000000</v>
       </c>
       <c r="D75" s="7">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E75" s="7">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="I75" s="34">
-        <f t="shared" si="8"/>
-        <v>4200000</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="I76" s="34"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="11" t="s">
+      <c r="I75" s="33">
+        <f t="shared" si="9"/>
+        <v>-1500000</v>
+      </c>
+      <c r="J75" s="36"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="38"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I79" s="34"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C80" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4">
+        <v>3</v>
+      </c>
+      <c r="G81" s="4">
+        <v>4</v>
+      </c>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="5"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1050000</v>
+      </c>
+      <c r="E83" s="7">
+        <v>1050000</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="36"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="5"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="36"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="7">
+        <v>-2000000</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1800000</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1800000</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="36"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="5"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="36"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="7">
+        <v>-2000000</v>
+      </c>
+      <c r="D87" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E87" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="36"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="5"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="36"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C89" s="7">
         <v>-3000000</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D89" s="7">
         <v>0</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E89" s="7">
         <v>1500000</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="I77" s="34">
-        <f t="shared" si="8"/>
+      <c r="F89" s="7">
+        <v>2250000</v>
+      </c>
+      <c r="G89" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="I89" s="39"/>
+      <c r="J89" s="36"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I91" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C92" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="D92">
+        <v>0.05</v>
+      </c>
+      <c r="E92">
+        <f>1-D92</f>
+        <v>0.95</v>
+      </c>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="7">
+        <v>-3000000</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0</v>
+      </c>
+      <c r="E94" s="7">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
+      <c r="F94" s="7">
+        <v>2250000</v>
+      </c>
+      <c r="G94" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="I94" s="26"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I95" s="26"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C96" s="41">
+        <v>-3000000</v>
+      </c>
+      <c r="D96" s="41">
+        <v>0</v>
+      </c>
+      <c r="E96" s="41">
+        <v>1500000</v>
+      </c>
+      <c r="F96" s="41">
+        <f>$F$94*$E$92</f>
+        <v>2137500</v>
+      </c>
+      <c r="G96" s="41">
+        <f>$G$94*$E$92</f>
+        <v>2850000</v>
+      </c>
+      <c r="I96" s="43">
+        <f>NPV($D$16,C96:G96)</f>
+        <v>1923759.0056510915</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I97" s="43"/>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C98" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D98">
+        <v>0.1</v>
+      </c>
+      <c r="E98">
+        <f>1-D98</f>
+        <v>0.9</v>
+      </c>
+      <c r="I98" s="43"/>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I99" s="43"/>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C100" s="41">
+        <v>-3000000</v>
+      </c>
+      <c r="D100" s="41">
+        <v>0</v>
+      </c>
+      <c r="E100" s="41">
+        <v>1500000</v>
+      </c>
+      <c r="F100" s="41">
+        <f>$F$94*$E$98</f>
+        <v>2025000</v>
+      </c>
+      <c r="G100" s="41">
+        <f>$G$94*$E$98</f>
+        <v>2700000</v>
+      </c>
+      <c r="I100" s="43">
+        <f t="shared" ref="I100:I104" si="10">NPV($D$16,C100:G100)</f>
+        <v>1738980.6676564275</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I101" s="43"/>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C102" s="40">
+        <v>0.03</v>
+      </c>
+      <c r="D102">
+        <v>0.03</v>
+      </c>
+      <c r="E102">
+        <f>1-D102</f>
+        <v>0.97</v>
+      </c>
+      <c r="I102" s="43"/>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I103" s="43"/>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C104" s="41">
+        <v>-3000000</v>
+      </c>
+      <c r="D104" s="41">
+        <v>0</v>
+      </c>
+      <c r="E104" s="41">
+        <v>1500000</v>
+      </c>
+      <c r="F104" s="41">
+        <f>$F$94*$E$102</f>
+        <v>2182500</v>
+      </c>
+      <c r="G104" s="41">
+        <f>$G$94*$E$102</f>
+        <v>2910000</v>
+      </c>
+      <c r="I104" s="43">
+        <f t="shared" si="10"/>
+        <v>1997670.3408489572</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C80:G80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294"/>

--- a/week6/Decision Dilemma_Mini_case_data_Table_1-Team-7.xlsx
+++ b/week6/Decision Dilemma_Mini_case_data_Table_1-Team-7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carles/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carles/DSCI6006-student/week6/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,10 +143,10 @@
     <t>Project C is the most attractive.</t>
   </si>
   <si>
-    <t>Discounted In-flows</t>
-  </si>
-  <si>
-    <t>Based on profitability index, we choose from highest to lowest: D, A, C, B.</t>
+    <t>Present Value</t>
+  </si>
+  <si>
+    <t>Based on profitability index, we choose from highest to lowest: A, C, D, B.</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -681,6 +681,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1254,13 +1255,14 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="I47" s="37">
-        <f>D47/(1+$D$16) + E47/(1+$D$16)^2+ F47/(1+$D$16)^2+ G47/(1+$D$16)^2</f>
+        <f>D47/(1+$D$16) + E47/(1+$D$16)^2+ F47/(1+$D$16)^3+ G47/(1+$D$16)^4</f>
         <v>1872427.9835390944</v>
       </c>
       <c r="J47" s="29">
         <f>I47/-C47</f>
         <v>1.8724279835390945</v>
       </c>
+      <c r="L47" s="16"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
@@ -1271,8 +1273,9 @@
       <c r="G48" s="8"/>
       <c r="I48" s="37"/>
       <c r="J48" s="29"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>4</v>
       </c>
@@ -1288,15 +1291,16 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="I49" s="37">
-        <f t="shared" ref="I49:I53" si="7">D49/(1+$D$16) + E49/(1+$D$16)^2+ F49/(1+$D$16)^2+ G49/(1+$D$16)^2</f>
+        <f>D49/(1+$D$16) + E49/(1+$D$16)^2+ F49/(1+$D$16)^3+ G49/(1+$D$16)^4</f>
         <v>3209876.5432098759</v>
       </c>
       <c r="J49" s="29">
-        <f t="shared" ref="J49:J51" si="8">I49/-C49</f>
+        <f t="shared" ref="J49:J53" si="7">I49/-C49</f>
         <v>1.6049382716049381</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -1305,8 +1309,9 @@
       <c r="G50" s="8"/>
       <c r="I50" s="37"/>
       <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>5</v>
       </c>
@@ -1322,15 +1327,16 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="I51" s="37">
+        <f>D51/(1+$D$16) + E51/(1+$D$16)^2+ F51/(1+$D$16)^3+ G51/(1+$D$16)^4</f>
+        <v>3614540.4663923178</v>
+      </c>
+      <c r="J51" s="29">
         <f t="shared" si="7"/>
-        <v>3614540.4663923178</v>
-      </c>
-      <c r="J51" s="29">
-        <f t="shared" si="8"/>
         <v>1.807270233196159</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L51" s="16"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1339,8 +1345,9 @@
       <c r="G52" s="7"/>
       <c r="I52" s="37"/>
       <c r="J52" s="29"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L52" s="16"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>6</v>
       </c>
@@ -1360,15 +1367,16 @@
         <v>3000000</v>
       </c>
       <c r="I53" s="37">
+        <f>D53/(1+$D$16) + E53/(1+$D$16)^2+ F53/(1+$D$16)^3+ G53/(1+$D$16)^4</f>
+        <v>5277220.331137416</v>
+      </c>
+      <c r="J53" s="29">
         <f t="shared" si="7"/>
-        <v>5787037.0370370355</v>
-      </c>
-      <c r="J53" s="29">
-        <f>SUM(D53:G53)/-C53</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+        <v>1.759073443712472</v>
+      </c>
+      <c r="L53" s="16"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="20" t="s">
         <v>38</v>
       </c>
@@ -1378,22 +1386,22 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="58" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>35</v>
       </c>
@@ -1484,7 +1492,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="I71" s="33">
-        <f t="shared" ref="I71:I75" si="9">C71+D71+E71</f>
+        <f t="shared" ref="I71:I75" si="8">C71+D71+E71</f>
         <v>1600000</v>
       </c>
       <c r="J71" s="36"/>
@@ -1546,7 +1554,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="I75" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-1500000</v>
       </c>
       <c r="J75" s="36"/>
@@ -1821,7 +1829,7 @@
         <v>2700000</v>
       </c>
       <c r="I100" s="43">
-        <f t="shared" ref="I100:I104" si="10">NPV($D$16,C100:G100)</f>
+        <f t="shared" ref="I100:I104" si="9">NPV($D$16,C100:G100)</f>
         <v>1738980.6676564275</v>
       </c>
     </row>
@@ -1863,7 +1871,7 @@
         <v>2910000</v>
       </c>
       <c r="I104" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1997670.3408489572</v>
       </c>
     </row>
